--- a/MargData.xlsx
+++ b/MargData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\margapp\margapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB7F4F9-FF6E-4067-B322-BEE5D52CCAE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EFD6C1-C845-4A6E-B8F2-981F2AEDB311}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{74AE5446-BBCC-424A-8AFD-655E8E651E97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74AE5446-BBCC-424A-8AFD-655E8E651E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Half Pitcher</t>
+  </si>
+  <si>
+    <t>Pitcher</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +77,25 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,18 +122,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF8E3"/>
-        <bgColor rgb="FFFEF8E3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -193,110 +233,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CB5BF18F-E045-4F56-89F3-A3A8364E2424}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{71B7C865-8B35-4130-B890-082936D2EF5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,346 +827,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D40C520-155C-4FAD-B4AB-D4FF44A963B5}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>4.95</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B2" s="31">
+        <v>7.95</v>
+      </c>
+      <c r="C2" s="31">
+        <v>11.95</v>
+      </c>
+      <c r="D2" s="31">
+        <v>18.95</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
         <v>1.3</v>
       </c>
-      <c r="D1" s="2">
-        <v>7.95</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="C3" s="30">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
-        <v>11.95</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2">
-        <v>11.95</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="D3" s="30">
         <v>5</v>
       </c>
-      <c r="J1" s="2">
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>9.4749999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>0.33333333329999998</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.43333333330000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.983333333</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.983333333</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>6.3166666669999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.2375</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.9875</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.9874999999999998</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.9874999999999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="J4" s="4">
-        <v>4.7374999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.59</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>3.79</v>
-      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C30C5A6-2456-4E37-B690-62818F3E5215}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
         <v>5.95</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C2" s="30">
         <v>1.3</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D2" s="35">
         <v>8.9499999999999993</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E2" s="30">
         <v>3</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F2" s="31">
         <v>12.95</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G2" s="30">
         <v>3</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H2" s="31">
         <v>12.95</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I2" s="30">
         <v>5</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J2" s="31">
         <v>20.95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>0.5</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B3" s="37">
         <v>2.9750000000000001</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C3" s="36">
         <v>0.65</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D3" s="38">
         <v>4.4749999999999996</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E3" s="36">
         <v>1.5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F3" s="37">
         <v>6.4749999999999996</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G3" s="36">
         <v>1.5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H3" s="37">
         <v>6.4749999999999996</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I3" s="36">
         <v>2.5</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J3" s="37">
         <v>10.475</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <v>0.33333333329999998</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="31">
         <v>1.983333333</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="32">
         <v>0.43333333330000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D4" s="35">
         <v>2.983333333</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
         <v>4.3166666669999998</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
         <v>4.3166666669999998</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I4" s="32">
         <v>1.6666666670000001</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J4" s="31">
         <v>6.983333333</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
         <v>0.25</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B5" s="37">
         <v>1.4875</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="36">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D5" s="38">
         <v>2.2374999999999998</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="36">
         <v>0.75</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F5" s="37">
         <v>3.2374999999999998</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G5" s="36">
         <v>0.75</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H5" s="37">
         <v>3.2374999999999998</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I5" s="36">
         <v>1.25</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J5" s="37">
         <v>5.2374999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>0.2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B6" s="34">
         <v>1.19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="33">
         <v>0.26</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D6" s="39">
         <v>1.79</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="33">
         <v>0.6</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="34">
         <v>2.59</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G6" s="33">
         <v>0.6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H6" s="34">
         <v>2.59</v>
       </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I6" s="33">
+        <v>1</v>
+      </c>
+      <c r="J6" s="34">
         <v>4.1900000000000004</v>
       </c>
     </row>
@@ -958,349 +1161,396 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6BE724-DD4B-4CFA-9087-4B9D9CA54048}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19">
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>6.95</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C2" s="8">
         <v>1.3</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D2" s="7">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F2" s="7">
         <v>13.95</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H2" s="7">
         <v>13.95</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J2" s="7">
         <v>22.95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
         <v>0.5</v>
       </c>
-      <c r="B2" s="24">
-        <v>3.4750000000000001</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B3" s="41">
+        <v>3.48</v>
+      </c>
+      <c r="C3" s="42">
         <v>0.65</v>
       </c>
-      <c r="D2" s="24">
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D3" s="41">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E3" s="42">
         <v>1.5</v>
       </c>
-      <c r="F2" s="24">
-        <v>6.9749999999999996</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="F3" s="41">
+        <v>6.98</v>
+      </c>
+      <c r="G3" s="42">
         <v>1.5</v>
       </c>
-      <c r="H2" s="24">
-        <v>6.9749999999999996</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H3" s="41">
+        <v>6.98</v>
+      </c>
+      <c r="I3" s="42">
         <v>2.5</v>
       </c>
-      <c r="J2" s="24">
-        <v>11.475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>0.33333333329999998</v>
-      </c>
-      <c r="B3" s="19">
-        <v>2.3166666669999998</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.43333333330000001</v>
-      </c>
-      <c r="D3" s="19">
-        <v>3.3166666669999998</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="J3" s="41">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.32</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I3" s="20">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="I4" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="J4" s="10">
         <v>7.65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
         <v>0.25</v>
       </c>
-      <c r="B4" s="24">
-        <v>1.7375</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B5" s="41">
+        <v>1.74</v>
+      </c>
+      <c r="C5" s="42">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D4" s="24">
-        <v>2.4874999999999998</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D5" s="41">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E5" s="42">
         <v>0.75</v>
       </c>
-      <c r="F4" s="24">
-        <v>3.4874999999999998</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F5" s="41">
+        <v>3.49</v>
+      </c>
+      <c r="G5" s="42">
         <v>0.75</v>
       </c>
-      <c r="H4" s="24">
-        <v>3.4874999999999998</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="H5" s="41">
+        <v>3.49</v>
+      </c>
+      <c r="I5" s="42">
         <v>1.25</v>
       </c>
-      <c r="J4" s="24">
-        <v>5.7374999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="J5" s="41">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>0.2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B6" s="13">
         <v>1.39</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C6" s="14">
         <v>0.26</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D6" s="13">
         <v>1.99</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="14">
         <v>0.6</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F6" s="13">
         <v>2.79</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G6" s="14">
         <v>0.6</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H6" s="13">
         <v>2.79</v>
       </c>
-      <c r="I5" s="21">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
         <v>4.59</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE92EA01-B1CE-4016-B010-5E3743ADB982}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26">
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>7.95</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C2" s="8">
         <v>1.3</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D2" s="7">
         <v>11.95</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F2" s="7">
         <v>15.95</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H2" s="7">
         <v>15.95</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J2" s="7">
         <v>23.95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
         <v>0.5</v>
       </c>
-      <c r="B2" s="31">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B3" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="C3" s="45">
         <v>0.65</v>
       </c>
-      <c r="D2" s="31">
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="E2" s="30">
+      <c r="D3" s="44">
+        <v>5.98</v>
+      </c>
+      <c r="E3" s="45">
         <v>1.5</v>
       </c>
-      <c r="F2" s="31">
-        <v>7.9749999999999996</v>
-      </c>
-      <c r="G2" s="30">
+      <c r="F3" s="44">
+        <v>7.98</v>
+      </c>
+      <c r="G3" s="45">
         <v>1.5</v>
       </c>
-      <c r="H2" s="31">
-        <v>7.9749999999999996</v>
-      </c>
-      <c r="I2" s="30">
+      <c r="H3" s="44">
+        <v>7.98</v>
+      </c>
+      <c r="I3" s="45">
         <v>2.5</v>
       </c>
-      <c r="J2" s="31">
-        <v>11.975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>0.33333333329999998</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="J3" s="44">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
         <v>2.65</v>
       </c>
-      <c r="C3" s="27">
-        <v>0.43333333330000001</v>
-      </c>
-      <c r="D3" s="26">
-        <v>3.983333333</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26">
-        <v>5.3166666669999998</v>
-      </c>
-      <c r="G3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <v>5.3166666669999998</v>
-      </c>
-      <c r="I3" s="27">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="J3" s="26">
-        <v>7.983333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="C4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5.32</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5.32</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="J4" s="10">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43">
         <v>0.25</v>
       </c>
-      <c r="B4" s="31">
-        <v>1.9875</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B5" s="44">
+        <v>1.99</v>
+      </c>
+      <c r="C5" s="45">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D4" s="31">
-        <v>2.9874999999999998</v>
-      </c>
-      <c r="E4" s="30">
+      <c r="D5" s="44">
+        <v>2.99</v>
+      </c>
+      <c r="E5" s="45">
         <v>0.75</v>
       </c>
-      <c r="F4" s="31">
-        <v>3.9874999999999998</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F5" s="44">
+        <v>3.99</v>
+      </c>
+      <c r="G5" s="45">
         <v>0.75</v>
       </c>
-      <c r="H4" s="31">
-        <v>3.9874999999999998</v>
-      </c>
-      <c r="I4" s="30">
+      <c r="H5" s="44">
+        <v>3.99</v>
+      </c>
+      <c r="I5" s="45">
         <v>1.25</v>
       </c>
-      <c r="J4" s="31">
-        <v>5.9874999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="J5" s="44">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>0.2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B6" s="13">
         <v>1.59</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C6" s="14">
         <v>0.26</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D6" s="13">
         <v>2.39</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E6" s="14">
         <v>0.6</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F6" s="13">
         <v>3.19</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G6" s="14">
         <v>0.6</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H6" s="13">
         <v>3.19</v>
       </c>
-      <c r="I5" s="28">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29">
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
         <v>4.79</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
